--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\Documentos_Ingeniería\Gestion_de_proyectos\frutygreen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B369394-0740-4E4F-B147-871049C0283A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523FDB7-D932-4DF1-AE1F-CFC4B4B8DCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5">
         <v>45429</v>
@@ -797,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5">
         <v>45429</v>
@@ -817,7 +817,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5">
         <v>45429</v>
